--- a/Day2_Candidate Question_CRM_v1.0.xlsx
+++ b/Day2_Candidate Question_CRM_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\md167118\Documents\GitHub\TTB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F9B5B1-F7ED-494C-82A5-33ED51E6A4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B328F32-2A06-4FC6-BB0D-D78E6DFB7400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{3FC66D97-6F0E-401F-B3B8-2AB5F7A449DB}"/>
   </bookViews>
@@ -698,25 +698,15 @@
  - เอกสาร Documentation specifications และ Postman collection อยู่ใน Folder Document and diagram ใน project </t>
   </si>
   <si>
-    <t>1.CREATE TABLE
-CREATE TABLE crmdb.dbo.Customer (
-	CustomerId int IDENTITY(1000,1) NOT NULL,
-	Firstname nvarchar(50) COLLATE SQL_Latin1_General_CP1_CI_AS NOT NULL,
-	Lastname nvarchar(50) COLLATE SQL_Latin1_General_CP1_CI_AS NOT NULL,
-	CustomerDate date NOT NULL,
-	IsVIP bit DEFAULT 0 NOT NULL,
-	StatusCode nvarchar(10) COLLATE SQL_Latin1_General_CP1_CI_AS NOT NULL,
-	CreatedOn datetime DEFAULT getdate() NOT NULL,
-	ModifiedOn datetime NULL,
-	CONSTRAINT PK__Customer__A4AE64D8F0554386 PRIMARY KEY (CustomerId)
-);</t>
+    <t xml:space="preserve"> - Program จะอยู่ใน GiHub สามารถดูได้จาก HELP.md
+https://github.com/Montri-Dua/TTB.git</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,6 +780,14 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -903,10 +901,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -966,8 +965,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1566,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D4E8BD-B4A2-48E4-A0B9-469D51C63A01}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1615,7 +1618,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="198.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="18"/>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="23" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1720,7 +1723,10 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D4:E5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{E4C5C115-D3F2-4292-90FB-6C43D11D9B13}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Day2_Candidate Question_CRM_v1.0.xlsx
+++ b/Day2_Candidate Question_CRM_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\md167118\Documents\GitHub\TTB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B328F32-2A06-4FC6-BB0D-D78E6DFB7400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBDA8A6-F12D-4AE7-A373-B3CEDB697B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{3FC66D97-6F0E-401F-B3B8-2AB5F7A449DB}"/>
   </bookViews>
@@ -695,11 +695,13 @@
   </si>
   <si>
     <t xml:space="preserve"> - Program จะอยู่ใน GiHub สามารถดูได้จาก HELP.md
- - เอกสาร Documentation specifications และ Postman collection อยู่ใน Folder Document and diagram ใน project </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Program จะอยู่ใน GiHub สามารถดูได้จาก HELP.md
+ -  Postman collection : TTB-Question2.postman_collection
 https://github.com/Montri-Dua/TTB.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Program จะอยู่ใน GiHub https://github.com/Montri-Dua/TTB.git สามารถดูได้จาก HELP.md
+ - เอกสาร Documentation specifications และ Postman collection อยู่ใน Folder Document and diagram ใน project 
+ - Postman collection name : 2.TTB-Question3.postman_collection</t>
   </si>
 </sst>
 </file>
@@ -933,9 +935,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -967,6 +966,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1456,12 +1458,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="123.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="5"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1569,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D4E8BD-B4A2-48E4-A0B9-469D51C63A01}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1580,7 @@
     <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="74.25" customWidth="1"/>
     <col min="4" max="4" width="58.25" customWidth="1"/>
-    <col min="5" max="5" width="73" customWidth="1"/>
+    <col min="5" max="5" width="33.25" customWidth="1"/>
     <col min="6" max="6" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1592,10 +1594,10 @@
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
@@ -1610,11 +1612,11 @@
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1628,11 +1630,11 @@
       <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="22" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1642,18 +1644,18 @@
       <c r="C4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="370.5" x14ac:dyDescent="0.2">
@@ -1667,10 +1669,10 @@
         <v>35</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="23" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1725,8 +1727,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{E4C5C115-D3F2-4292-90FB-6C43D11D9B13}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{9014048D-AF0E-48B7-9E76-D76C281E7C13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Day2_Candidate Question_CRM_v1.0.xlsx
+++ b/Day2_Candidate Question_CRM_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\md167118\Documents\GitHub\TTB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBDA8A6-F12D-4AE7-A373-B3CEDB697B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFCD7E4-7920-49B7-AF4C-7529EF159DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{3FC66D97-6F0E-401F-B3B8-2AB5F7A449DB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>Answer Approach</t>
   </si>
@@ -521,10 +521,6 @@
     <t>Github</t>
   </si>
   <si>
-    <t>จะใช้วิธีแบบ binary Search
-- โดยเริ่มต้นจะอาร์เรย์เรียงลำดับจาก 0 ถึง 1,000,000</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - การตอบสนองของ API ช้ากว่าที่คาดไว้</t>
   </si>
   <si>
@@ -654,7 +650,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">CREATE TABLE Sales (
+    <t>https://github.com/Montri-Dua/TTB.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Program จะอยู่ใน GiHub สามารถดูได้จาก HELP.md
+ -  Postman collection : TTB-Question2.postman_collection
+https://github.com/Montri-Dua/TTB.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program จะอยู่ใน GiHub Question1 : https://github.com/Montri-Dua/TTB.git
+จะใช้วิธีแบบ binary Search
+ - โดยเริ่มต้นจะอาร์เรย์เรียงลำดับจาก 0 ถึง 1,000,000
+ - กำหนดค่าเป้าหมาย 900,000
+ - ค้นหาค่าที่ใกล้เคียงที่สุด และค้นหาแบบ binary Search
+   โดยจะมีการตรวจสอบ  กรณี array ว่าง, กรณีมีค่าเดียว ถ้าค่าเป้าหมายน้อยกว่าค่าแรก, ถ้าค่าเป้าหมายมากกว่าค่าสุดท้าย และ วน loop หาค่าแบบ Binary Search
+ - จะแสดง ผลลัพธ์ ค่าที่ใกล้เคียง 900000 ที่สุดคือ: 900000 และค่า ความต่าง: 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Program จะอยู่ใน GiHub https://github.com/Montri-Dua/TTB.git สามารถดูได้จาก HELP.md
+ - เอกสาร Documentation specifications  อยู่ใน Folder Document and diagram ใน project 
+ - Postman collection name : 2.TTB-Question3.postman_collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. SQL จะอยู่ใน GiHub https://github.com/Montri-Dua/TTB.git
+CREATE TABLE Sales (
     SaleId INT IDENTITY(1,1) PRIMARY KEY,  -- รหัสรายการขาย (Auto Increment)
     CustomerId VARCHAR(10) NOT NULL,       -- รหัสลูกค้า
     SaleAmount DECIMAL(10,2) NOT NULL,     -- ยอดขาย (สูงสุด 10 หลัก ทศนิยม 2 ตำแหน่ง)
@@ -690,25 +710,12 @@
 ORDER BY MaxSaleAmount DESC;
 </t>
   </si>
-  <si>
-    <t>https://github.com/Montri-Dua/TTB.git</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Program จะอยู่ใน GiHub สามารถดูได้จาก HELP.md
- -  Postman collection : TTB-Question2.postman_collection
-https://github.com/Montri-Dua/TTB.git</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Program จะอยู่ใน GiHub https://github.com/Montri-Dua/TTB.git สามารถดูได้จาก HELP.md
- - เอกสาร Documentation specifications และ Postman collection อยู่ใน Folder Document and diagram ใน project 
- - Postman collection name : 2.TTB-Question3.postman_collection</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,13 +782,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -905,9 +905,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -934,9 +934,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -964,11 +961,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1458,12 +1464,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="123.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="5"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1571,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D4E8BD-B4A2-48E4-A0B9-469D51C63A01}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1580,8 +1586,8 @@
     <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="74.25" customWidth="1"/>
     <col min="4" max="4" width="58.25" customWidth="1"/>
-    <col min="5" max="5" width="33.25" customWidth="1"/>
-    <col min="6" max="6" width="47.75" customWidth="1"/>
+    <col min="5" max="5" width="45.5" customWidth="1"/>
+    <col min="6" max="6" width="47.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1594,15 +1600,15 @@
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1612,12 +1618,12 @@
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>47</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="22" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1628,35 +1634,37 @@
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="16"/>
       <c r="F3" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="23" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -1669,14 +1677,14 @@
         <v>35</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="228" x14ac:dyDescent="0.2">
+      <c r="F6" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="342" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1687,36 +1695,38 @@
         <v>2</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" ht="171" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="F9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1728,8 +1738,10 @@
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{E4C5C115-D3F2-4292-90FB-6C43D11D9B13}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{9014048D-AF0E-48B7-9E76-D76C281E7C13}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{C6FC7A8D-FF91-4A7C-B943-A61094B72C5A}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{E97A9A6B-6B9F-4970-B175-DA7F8D0BC3D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>